--- a/Design/CLASS/Class.xlsx
+++ b/Design/CLASS/Class.xlsx
@@ -12,7 +12,6 @@
     <sheet name="ViewPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:M40"/>
 </workbook>
 </file>
 
@@ -1280,6 +1279,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1289,31 +1300,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1638,7 +1637,7 @@
   <dimension ref="A1:X120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1748,13 +1747,13 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
@@ -1787,7 +1786,7 @@
       <c r="N4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="38" t="s">
         <v>136</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -1801,9 +1800,9 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" t="s">
         <v>79</v>
       </c>
@@ -1831,10 +1830,10 @@
       <c r="M5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="36"/>
+      <c r="O5" s="38"/>
       <c r="Q5" s="2" t="s">
         <v>127</v>
       </c>
@@ -1846,11 +1845,11 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="31"/>
       <c r="D6" t="s">
         <v>116</v>
       </c>
@@ -1876,13 +1875,13 @@
       </c>
       <c r="K6" s="6"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
       <c r="D7" t="s">
         <v>205</v>
       </c>
@@ -1908,15 +1907,15 @@
       </c>
       <c r="K7" s="6"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
@@ -1946,8 +1945,8 @@
       <c r="M8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
       <c r="Q8" s="2" t="s">
         <v>128</v>
       </c>
@@ -1959,9 +1958,9 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" t="s">
         <v>182</v>
       </c>
@@ -1989,8 +1988,8 @@
       <c r="M9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
       <c r="Q9" s="8" t="s">
         <v>138</v>
       </c>
@@ -2002,9 +2001,9 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" t="s">
         <v>183</v>
       </c>
@@ -2049,7 +2048,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -2097,7 +2096,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="2" t="s">
         <v>176</v>
       </c>
@@ -2142,7 +2141,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="30" t="s">
         <v>203</v>
       </c>
@@ -2155,7 +2154,7 @@
       <c r="B15" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -2192,7 +2191,7 @@
     <row r="16" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="47"/>
-      <c r="C16" s="32"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="14" t="s">
         <v>87</v>
       </c>
@@ -2220,10 +2219,10 @@
       <c r="M16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="N16" s="36" t="s">
+      <c r="N16" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="O16" s="36" t="s">
+      <c r="O16" s="38" t="s">
         <v>144</v>
       </c>
       <c r="Q16" s="2" t="s">
@@ -2233,10 +2232,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="47"/>
-      <c r="C17" s="42"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="22" t="s">
         <v>184</v>
       </c>
@@ -2264,19 +2263,19 @@
       <c r="M17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="Q17" s="34" t="s">
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="Q17" s="31" t="s">
         <v>131</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="47"/>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="26" t="s">
@@ -2306,17 +2305,17 @@
       <c r="M18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="Q18" s="34"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="Q18" s="31"/>
       <c r="R18" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="47"/>
-      <c r="C19" s="39"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="16" t="s">
         <v>101</v>
       </c>
@@ -2342,10 +2341,10 @@
       <c r="M19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="36" t="s">
+      <c r="N19" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="O19" s="36" t="s">
+      <c r="O19" s="38" t="s">
         <v>145</v>
       </c>
       <c r="Q19" s="2" t="s">
@@ -2355,10 +2354,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="47"/>
-      <c r="C20" s="39"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="16" t="s">
         <v>99</v>
       </c>
@@ -2386,8 +2385,8 @@
       <c r="M20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
       <c r="Q20" s="2" t="s">
         <v>114</v>
       </c>
@@ -2395,10 +2394,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="47"/>
-      <c r="C21" s="39"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="16" t="s">
         <v>100</v>
       </c>
@@ -2426,13 +2425,13 @@
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="47"/>
-      <c r="C22" s="40"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="28" t="s">
         <v>79</v>
       </c>
@@ -2460,13 +2459,13 @@
       <c r="M22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="47"/>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -2496,17 +2495,17 @@
       <c r="M23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N23" s="36" t="s">
+      <c r="N23" s="38" t="s">
         <v>96</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="47"/>
-      <c r="C24" s="32"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="18" t="s">
         <v>61</v>
       </c>
@@ -2534,15 +2533,15 @@
       <c r="M24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N24" s="36"/>
+      <c r="N24" s="38"/>
       <c r="O24" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="47"/>
-      <c r="C25" s="32"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="14" t="s">
         <v>185</v>
       </c>
@@ -2568,10 +2567,10 @@
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="47"/>
-      <c r="C26" s="32"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="16" t="s">
         <v>186</v>
       </c>
@@ -2600,10 +2599,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="47"/>
-      <c r="C27" s="32"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="14" t="s">
         <v>79</v>
       </c>
@@ -2634,14 +2633,14 @@
       <c r="N27" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="O27" s="36" t="s">
+      <c r="O27" s="38" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="47"/>
-      <c r="C28" s="32"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="14" t="s">
         <v>132</v>
       </c>
@@ -2672,12 +2671,12 @@
       <c r="N28" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="O28" s="36"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="O28" s="38"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="47"/>
-      <c r="C29" s="32"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="18" t="s">
         <v>105</v>
       </c>
@@ -2708,14 +2707,14 @@
       <c r="N29" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="O29" s="37" t="s">
+      <c r="O29" s="42" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="47"/>
-      <c r="C30" s="32"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="18" t="s">
         <v>187</v>
       </c>
@@ -2746,12 +2745,12 @@
       <c r="N30" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="O30" s="37"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="O30" s="42"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="47"/>
-      <c r="C31" s="32"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="18" t="s">
         <v>188</v>
       </c>
@@ -2786,10 +2785,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="48"/>
-      <c r="C32" s="33"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="20" t="s">
         <v>189</v>
       </c>
@@ -2815,11 +2814,11 @@
       </c>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -2850,9 +2849,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="44"/>
-      <c r="C34" s="32"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="14" t="s">
         <v>87</v>
       </c>
@@ -2887,9 +2886,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="44"/>
-      <c r="C35" s="42"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="22" t="s">
         <v>184</v>
       </c>
@@ -2924,9 +2923,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="44"/>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="26" t="s">
@@ -2954,9 +2953,9 @@
       </c>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="44"/>
-      <c r="C37" s="39"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="16" t="s">
         <v>101</v>
       </c>
@@ -2980,9 +2979,9 @@
       </c>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="44"/>
-      <c r="C38" s="39"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="16" t="s">
         <v>99</v>
       </c>
@@ -3017,9 +3016,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="44"/>
-      <c r="C39" s="39"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="16" t="s">
         <v>100</v>
       </c>
@@ -3045,9 +3044,9 @@
       </c>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="44"/>
-      <c r="C40" s="40"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="28" t="s">
         <v>79</v>
       </c>
@@ -3076,9 +3075,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="44"/>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -3115,9 +3114,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="44"/>
-      <c r="C42" s="32"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="18" t="s">
         <v>61</v>
       </c>
@@ -3148,13 +3147,13 @@
       <c r="N42" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="O42" s="36" t="s">
+      <c r="O42" s="38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="44"/>
-      <c r="C43" s="32"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="14" t="s">
         <v>185</v>
       </c>
@@ -3185,11 +3184,11 @@
       <c r="N43" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="O43" s="36"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="O43" s="38"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="44"/>
-      <c r="C44" s="32"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="16" t="s">
         <v>186</v>
       </c>
@@ -3220,11 +3219,11 @@
       <c r="N44" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="O44" s="36"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="O44" s="38"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="44"/>
-      <c r="C45" s="32"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="14" t="s">
         <v>79</v>
       </c>
@@ -3250,9 +3249,9 @@
       </c>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="44"/>
-      <c r="C46" s="32"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="14" t="s">
         <v>132</v>
       </c>
@@ -3281,9 +3280,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="44"/>
-      <c r="C47" s="32"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="18" t="s">
         <v>105</v>
       </c>
@@ -3318,9 +3317,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="44"/>
-      <c r="C48" s="32"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="18" t="s">
         <v>187</v>
       </c>
@@ -3355,9 +3354,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B49" s="44"/>
-      <c r="C49" s="32"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="18" t="s">
         <v>188</v>
       </c>
@@ -3392,9 +3391,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B50" s="45"/>
-      <c r="C50" s="33"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="20" t="s">
         <v>189</v>
       </c>
@@ -3420,8 +3419,8 @@
       </c>
       <c r="K50" s="6"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B51" s="34" t="s">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B51" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3452,9 +3451,9 @@
       </c>
       <c r="K51" s="6"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B52" s="34"/>
-      <c r="C52" s="34" t="s">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B52" s="31"/>
+      <c r="C52" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -3482,9 +3481,9 @@
       </c>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="6" t="s">
         <v>117</v>
       </c>
@@ -3510,9 +3509,9 @@
       </c>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="6" t="s">
         <v>79</v>
       </c>
@@ -3538,9 +3537,9 @@
       </c>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="6" t="s">
         <v>132</v>
       </c>
@@ -3566,11 +3565,11 @@
       </c>
       <c r="K55" s="6"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -3601,8 +3600,8 @@
       </c>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B58" s="34"/>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B58" s="31"/>
       <c r="C58" s="2" t="s">
         <v>44</v>
       </c>
@@ -3631,8 +3630,8 @@
       </c>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B59" s="35"/>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B59" s="41"/>
       <c r="C59" s="2" t="s">
         <v>43</v>
       </c>
@@ -3661,11 +3660,11 @@
       </c>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B60" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="12" t="s">
@@ -3693,9 +3692,9 @@
       </c>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B61" s="44"/>
-      <c r="C61" s="32"/>
+      <c r="C61" s="36"/>
       <c r="D61" s="14" t="s">
         <v>87</v>
       </c>
@@ -3721,9 +3720,9 @@
       </c>
       <c r="K61" s="6"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B62" s="44"/>
-      <c r="C62" s="42"/>
+      <c r="C62" s="40"/>
       <c r="D62" s="22" t="s">
         <v>184</v>
       </c>
@@ -3749,9 +3748,9 @@
       </c>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B63" s="44"/>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="26" t="s">
@@ -3779,9 +3778,9 @@
       </c>
       <c r="K63" s="6"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B64" s="44"/>
-      <c r="C64" s="39"/>
+      <c r="C64" s="33"/>
       <c r="D64" s="16" t="s">
         <v>101</v>
       </c>
@@ -3805,9 +3804,9 @@
       </c>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="44"/>
-      <c r="C65" s="39"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="16" t="s">
         <v>99</v>
       </c>
@@ -3833,9 +3832,9 @@
       </c>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="44"/>
-      <c r="C66" s="39"/>
+      <c r="C66" s="33"/>
       <c r="D66" s="16" t="s">
         <v>100</v>
       </c>
@@ -3861,9 +3860,9 @@
       </c>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="44"/>
-      <c r="C67" s="40"/>
+      <c r="C67" s="34"/>
       <c r="D67" s="28" t="s">
         <v>79</v>
       </c>
@@ -3889,9 +3888,9 @@
       </c>
       <c r="K67" s="6"/>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="44"/>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="24" t="s">
@@ -3919,9 +3918,9 @@
       </c>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="44"/>
-      <c r="C69" s="32"/>
+      <c r="C69" s="36"/>
       <c r="D69" s="18" t="s">
         <v>61</v>
       </c>
@@ -3947,9 +3946,9 @@
       </c>
       <c r="K69" s="6"/>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="44"/>
-      <c r="C70" s="32"/>
+      <c r="C70" s="36"/>
       <c r="D70" s="14" t="s">
         <v>185</v>
       </c>
@@ -3975,9 +3974,9 @@
       </c>
       <c r="K70" s="6"/>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="44"/>
-      <c r="C71" s="32"/>
+      <c r="C71" s="36"/>
       <c r="D71" s="16" t="s">
         <v>186</v>
       </c>
@@ -4003,9 +4002,9 @@
       </c>
       <c r="K71" s="6"/>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" s="44"/>
-      <c r="C72" s="32"/>
+      <c r="C72" s="36"/>
       <c r="D72" s="14" t="s">
         <v>79</v>
       </c>
@@ -4031,9 +4030,9 @@
       </c>
       <c r="K72" s="6"/>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" s="44"/>
-      <c r="C73" s="32"/>
+      <c r="C73" s="36"/>
       <c r="D73" s="14" t="s">
         <v>132</v>
       </c>
@@ -4059,9 +4058,9 @@
       </c>
       <c r="K73" s="6"/>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" s="44"/>
-      <c r="C74" s="32"/>
+      <c r="C74" s="36"/>
       <c r="D74" s="18" t="s">
         <v>105</v>
       </c>
@@ -4087,9 +4086,9 @@
       </c>
       <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75" s="44"/>
-      <c r="C75" s="32"/>
+      <c r="C75" s="36"/>
       <c r="D75" s="18" t="s">
         <v>187</v>
       </c>
@@ -4115,9 +4114,9 @@
       </c>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="44"/>
-      <c r="C76" s="32"/>
+      <c r="C76" s="36"/>
       <c r="D76" s="18" t="s">
         <v>188</v>
       </c>
@@ -4143,9 +4142,9 @@
       </c>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="45"/>
-      <c r="C77" s="33"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="20" t="s">
         <v>189</v>
       </c>
@@ -4171,152 +4170,168 @@
       </c>
       <c r="K77" s="6"/>
     </row>
-    <row r="85" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J85"/>
       <c r="K85"/>
     </row>
-    <row r="86" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J86"/>
       <c r="K86"/>
     </row>
-    <row r="87" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J87"/>
       <c r="K87"/>
     </row>
-    <row r="88" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J88"/>
       <c r="K88"/>
     </row>
-    <row r="89" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J89"/>
       <c r="K89"/>
     </row>
-    <row r="90" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J90"/>
       <c r="K90"/>
     </row>
-    <row r="91" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J91"/>
       <c r="K91"/>
     </row>
-    <row r="92" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J92"/>
       <c r="K92"/>
     </row>
-    <row r="93" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J93"/>
       <c r="K93"/>
     </row>
-    <row r="94" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J94"/>
       <c r="K94"/>
     </row>
-    <row r="95" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J95"/>
       <c r="K95"/>
     </row>
-    <row r="96" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J96"/>
       <c r="K96"/>
     </row>
-    <row r="97" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J97"/>
       <c r="K97"/>
     </row>
-    <row r="98" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J98"/>
       <c r="K98"/>
     </row>
-    <row r="99" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J99"/>
       <c r="K99"/>
     </row>
-    <row r="100" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J100"/>
       <c r="K100"/>
     </row>
-    <row r="101" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J101"/>
       <c r="K101"/>
     </row>
-    <row r="102" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="102" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J102"/>
       <c r="K102"/>
     </row>
-    <row r="103" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="103" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J103"/>
       <c r="K103"/>
     </row>
-    <row r="104" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="104" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J104"/>
       <c r="K104"/>
     </row>
-    <row r="105" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="105" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J105"/>
       <c r="K105"/>
     </row>
-    <row r="106" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J106"/>
       <c r="K106"/>
     </row>
-    <row r="107" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="107" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J107"/>
       <c r="K107"/>
     </row>
-    <row r="108" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="108" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J108"/>
       <c r="K108"/>
     </row>
-    <row r="109" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="109" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J109"/>
       <c r="K109"/>
     </row>
-    <row r="110" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="110" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J110"/>
       <c r="K110"/>
     </row>
-    <row r="111" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="111" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J111"/>
       <c r="K111"/>
     </row>
-    <row r="112" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="112" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J112"/>
       <c r="K112"/>
     </row>
-    <row r="113" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J113"/>
       <c r="K113"/>
     </row>
-    <row r="114" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J114"/>
       <c r="K114"/>
     </row>
-    <row r="115" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J115"/>
       <c r="K115"/>
     </row>
-    <row r="116" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J116"/>
       <c r="K116"/>
     </row>
-    <row r="117" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J117"/>
       <c r="K117"/>
     </row>
-    <row r="118" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J118"/>
       <c r="K118"/>
     </row>
-    <row r="119" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J119"/>
       <c r="K119"/>
     </row>
-    <row r="120" spans="10:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J120"/>
       <c r="K120"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C68:C77"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B60:B77"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="B33:B50"/>
+    <mergeCell ref="B15:B32"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C41:C50"/>
@@ -4333,22 +4348,6 @@
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="C23:C32"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C68:C77"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B60:B77"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="B33:B50"/>
-    <mergeCell ref="B15:B32"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/CLASS/Class.xlsx
+++ b/Design/CLASS/Class.xlsx
@@ -12,6 +12,7 @@
     <sheet name="ViewPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:M40"/>
 </workbook>
 </file>
 
@@ -1279,9 +1280,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1291,28 +1310,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,7 +1638,7 @@
   <dimension ref="A1:X120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1747,13 +1748,13 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
@@ -1786,7 +1787,7 @@
       <c r="N4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="36" t="s">
         <v>136</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -1800,9 +1801,9 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" t="s">
         <v>79</v>
       </c>
@@ -1830,10 +1831,10 @@
       <c r="M5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="38"/>
+      <c r="O5" s="36"/>
       <c r="Q5" s="2" t="s">
         <v>127</v>
       </c>
@@ -1845,11 +1846,11 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="34"/>
       <c r="D6" t="s">
         <v>116</v>
       </c>
@@ -1875,13 +1876,13 @@
       </c>
       <c r="K6" s="6"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" t="s">
         <v>205</v>
       </c>
@@ -1907,15 +1908,15 @@
       </c>
       <c r="K7" s="6"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
@@ -1945,8 +1946,8 @@
       <c r="M8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
       <c r="Q8" s="2" t="s">
         <v>128</v>
       </c>
@@ -1958,9 +1959,9 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" t="s">
         <v>182</v>
       </c>
@@ -1988,8 +1989,8 @@
       <c r="M9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
       <c r="Q9" s="8" t="s">
         <v>138</v>
       </c>
@@ -2001,9 +2002,9 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" t="s">
         <v>183</v>
       </c>
@@ -2048,7 +2049,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -2096,7 +2097,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="2" t="s">
         <v>176</v>
       </c>
@@ -2141,7 +2142,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="30" t="s">
         <v>203</v>
       </c>
@@ -2154,7 +2155,7 @@
       <c r="B15" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="41" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -2191,7 +2192,7 @@
     <row r="16" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="47"/>
-      <c r="C16" s="36"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="14" t="s">
         <v>87</v>
       </c>
@@ -2219,10 +2220,10 @@
       <c r="M16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="N16" s="38" t="s">
+      <c r="N16" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="O16" s="38" t="s">
+      <c r="O16" s="36" t="s">
         <v>144</v>
       </c>
       <c r="Q16" s="2" t="s">
@@ -2232,10 +2233,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="47"/>
-      <c r="C17" s="40"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="22" t="s">
         <v>184</v>
       </c>
@@ -2263,19 +2264,19 @@
       <c r="M17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="Q17" s="31" t="s">
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="Q17" s="34" t="s">
         <v>131</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="47"/>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="38" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="26" t="s">
@@ -2305,17 +2306,17 @@
       <c r="M18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="Q18" s="31"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="Q18" s="34"/>
       <c r="R18" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="47"/>
-      <c r="C19" s="33"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="16" t="s">
         <v>101</v>
       </c>
@@ -2341,10 +2342,10 @@
       <c r="M19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="38" t="s">
+      <c r="N19" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="O19" s="38" t="s">
+      <c r="O19" s="36" t="s">
         <v>145</v>
       </c>
       <c r="Q19" s="2" t="s">
@@ -2354,10 +2355,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="47"/>
-      <c r="C20" s="33"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="16" t="s">
         <v>99</v>
       </c>
@@ -2385,8 +2386,8 @@
       <c r="M20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
       <c r="Q20" s="2" t="s">
         <v>114</v>
       </c>
@@ -2394,10 +2395,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="47"/>
-      <c r="C21" s="33"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="16" t="s">
         <v>100</v>
       </c>
@@ -2425,13 +2426,13 @@
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="47"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="28" t="s">
         <v>79</v>
       </c>
@@ -2459,13 +2460,13 @@
       <c r="M22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="47"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -2495,17 +2496,17 @@
       <c r="M23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N23" s="38" t="s">
+      <c r="N23" s="36" t="s">
         <v>96</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="47"/>
-      <c r="C24" s="36"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="18" t="s">
         <v>61</v>
       </c>
@@ -2533,15 +2534,15 @@
       <c r="M24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N24" s="38"/>
+      <c r="N24" s="36"/>
       <c r="O24" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="47"/>
-      <c r="C25" s="36"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="14" t="s">
         <v>185</v>
       </c>
@@ -2567,10 +2568,10 @@
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="47"/>
-      <c r="C26" s="36"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="16" t="s">
         <v>186</v>
       </c>
@@ -2599,10 +2600,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="47"/>
-      <c r="C27" s="36"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="14" t="s">
         <v>79</v>
       </c>
@@ -2633,14 +2634,14 @@
       <c r="N27" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="O27" s="38" t="s">
+      <c r="O27" s="36" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="47"/>
-      <c r="C28" s="36"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="14" t="s">
         <v>132</v>
       </c>
@@ -2671,12 +2672,12 @@
       <c r="N28" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="O28" s="38"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O28" s="36"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="47"/>
-      <c r="C29" s="36"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="18" t="s">
         <v>105</v>
       </c>
@@ -2707,14 +2708,14 @@
       <c r="N29" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="O29" s="42" t="s">
+      <c r="O29" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="47"/>
-      <c r="C30" s="36"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="18" t="s">
         <v>187</v>
       </c>
@@ -2745,12 +2746,12 @@
       <c r="N30" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="O30" s="42"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O30" s="37"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="47"/>
-      <c r="C31" s="36"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="18" t="s">
         <v>188</v>
       </c>
@@ -2785,10 +2786,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="48"/>
-      <c r="C32" s="37"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="20" t="s">
         <v>189</v>
       </c>
@@ -2814,11 +2815,11 @@
       </c>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="41" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -2849,9 +2850,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B34" s="44"/>
-      <c r="C34" s="36"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="14" t="s">
         <v>87</v>
       </c>
@@ -2886,9 +2887,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B35" s="44"/>
-      <c r="C35" s="40"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="22" t="s">
         <v>184</v>
       </c>
@@ -2923,9 +2924,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B36" s="44"/>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="38" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="26" t="s">
@@ -2953,9 +2954,9 @@
       </c>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B37" s="44"/>
-      <c r="C37" s="33"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="16" t="s">
         <v>101</v>
       </c>
@@ -2979,9 +2980,9 @@
       </c>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="44"/>
-      <c r="C38" s="33"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="16" t="s">
         <v>99</v>
       </c>
@@ -3016,9 +3017,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B39" s="44"/>
-      <c r="C39" s="33"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="16" t="s">
         <v>100</v>
       </c>
@@ -3044,9 +3045,9 @@
       </c>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B40" s="44"/>
-      <c r="C40" s="34"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="28" t="s">
         <v>79</v>
       </c>
@@ -3075,9 +3076,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B41" s="44"/>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -3114,9 +3115,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B42" s="44"/>
-      <c r="C42" s="36"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="18" t="s">
         <v>61</v>
       </c>
@@ -3147,13 +3148,13 @@
       <c r="N42" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="O42" s="38" t="s">
+      <c r="O42" s="36" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B43" s="44"/>
-      <c r="C43" s="36"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="14" t="s">
         <v>185</v>
       </c>
@@ -3184,11 +3185,11 @@
       <c r="N43" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="O43" s="38"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O43" s="36"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B44" s="44"/>
-      <c r="C44" s="36"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="16" t="s">
         <v>186</v>
       </c>
@@ -3219,11 +3220,11 @@
       <c r="N44" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="O44" s="38"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O44" s="36"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B45" s="44"/>
-      <c r="C45" s="36"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="14" t="s">
         <v>79</v>
       </c>
@@ -3249,9 +3250,9 @@
       </c>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B46" s="44"/>
-      <c r="C46" s="36"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="14" t="s">
         <v>132</v>
       </c>
@@ -3280,9 +3281,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B47" s="44"/>
-      <c r="C47" s="36"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="18" t="s">
         <v>105</v>
       </c>
@@ -3317,9 +3318,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B48" s="44"/>
-      <c r="C48" s="36"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="18" t="s">
         <v>187</v>
       </c>
@@ -3354,9 +3355,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B49" s="44"/>
-      <c r="C49" s="36"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="18" t="s">
         <v>188</v>
       </c>
@@ -3391,9 +3392,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B50" s="45"/>
-      <c r="C50" s="37"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="20" t="s">
         <v>189</v>
       </c>
@@ -3419,8 +3420,8 @@
       </c>
       <c r="K50" s="6"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="31" t="s">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3451,9 +3452,9 @@
       </c>
       <c r="K51" s="6"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="31"/>
-      <c r="C52" s="31" t="s">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="34"/>
+      <c r="C52" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -3481,9 +3482,9 @@
       </c>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="6" t="s">
         <v>117</v>
       </c>
@@ -3509,9 +3510,9 @@
       </c>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="6" t="s">
         <v>79</v>
       </c>
@@ -3537,9 +3538,9 @@
       </c>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="6" t="s">
         <v>132</v>
       </c>
@@ -3565,11 +3566,11 @@
       </c>
       <c r="K55" s="6"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -3600,8 +3601,8 @@
       </c>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="31"/>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B58" s="34"/>
       <c r="C58" s="2" t="s">
         <v>44</v>
       </c>
@@ -3630,8 +3631,8 @@
       </c>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="41"/>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B59" s="35"/>
       <c r="C59" s="2" t="s">
         <v>43</v>
       </c>
@@ -3660,11 +3661,11 @@
       </c>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B60" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="41" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="12" t="s">
@@ -3692,9 +3693,9 @@
       </c>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B61" s="44"/>
-      <c r="C61" s="36"/>
+      <c r="C61" s="32"/>
       <c r="D61" s="14" t="s">
         <v>87</v>
       </c>
@@ -3720,9 +3721,9 @@
       </c>
       <c r="K61" s="6"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B62" s="44"/>
-      <c r="C62" s="40"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="22" t="s">
         <v>184</v>
       </c>
@@ -3748,9 +3749,9 @@
       </c>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B63" s="44"/>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="38" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="26" t="s">
@@ -3778,9 +3779,9 @@
       </c>
       <c r="K63" s="6"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B64" s="44"/>
-      <c r="C64" s="33"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="16" t="s">
         <v>101</v>
       </c>
@@ -3804,9 +3805,9 @@
       </c>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B65" s="44"/>
-      <c r="C65" s="33"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="16" t="s">
         <v>99</v>
       </c>
@@ -3832,9 +3833,9 @@
       </c>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B66" s="44"/>
-      <c r="C66" s="33"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="16" t="s">
         <v>100</v>
       </c>
@@ -3860,9 +3861,9 @@
       </c>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B67" s="44"/>
-      <c r="C67" s="34"/>
+      <c r="C67" s="40"/>
       <c r="D67" s="28" t="s">
         <v>79</v>
       </c>
@@ -3888,9 +3889,9 @@
       </c>
       <c r="K67" s="6"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B68" s="44"/>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="24" t="s">
@@ -3918,9 +3919,9 @@
       </c>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B69" s="44"/>
-      <c r="C69" s="36"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="18" t="s">
         <v>61</v>
       </c>
@@ -3946,9 +3947,9 @@
       </c>
       <c r="K69" s="6"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B70" s="44"/>
-      <c r="C70" s="36"/>
+      <c r="C70" s="32"/>
       <c r="D70" s="14" t="s">
         <v>185</v>
       </c>
@@ -3974,9 +3975,9 @@
       </c>
       <c r="K70" s="6"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B71" s="44"/>
-      <c r="C71" s="36"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="16" t="s">
         <v>186</v>
       </c>
@@ -4002,9 +4003,9 @@
       </c>
       <c r="K71" s="6"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B72" s="44"/>
-      <c r="C72" s="36"/>
+      <c r="C72" s="32"/>
       <c r="D72" s="14" t="s">
         <v>79</v>
       </c>
@@ -4030,9 +4031,9 @@
       </c>
       <c r="K72" s="6"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B73" s="44"/>
-      <c r="C73" s="36"/>
+      <c r="C73" s="32"/>
       <c r="D73" s="14" t="s">
         <v>132</v>
       </c>
@@ -4058,9 +4059,9 @@
       </c>
       <c r="K73" s="6"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B74" s="44"/>
-      <c r="C74" s="36"/>
+      <c r="C74" s="32"/>
       <c r="D74" s="18" t="s">
         <v>105</v>
       </c>
@@ -4086,9 +4087,9 @@
       </c>
       <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B75" s="44"/>
-      <c r="C75" s="36"/>
+      <c r="C75" s="32"/>
       <c r="D75" s="18" t="s">
         <v>187</v>
       </c>
@@ -4114,9 +4115,9 @@
       </c>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B76" s="44"/>
-      <c r="C76" s="36"/>
+      <c r="C76" s="32"/>
       <c r="D76" s="18" t="s">
         <v>188</v>
       </c>
@@ -4142,9 +4143,9 @@
       </c>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B77" s="45"/>
-      <c r="C77" s="37"/>
+      <c r="C77" s="33"/>
       <c r="D77" s="20" t="s">
         <v>189</v>
       </c>
@@ -4170,152 +4171,168 @@
       </c>
       <c r="K77" s="6"/>
     </row>
-    <row r="85" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J85"/>
       <c r="K85"/>
     </row>
-    <row r="86" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J86"/>
       <c r="K86"/>
     </row>
-    <row r="87" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J87"/>
       <c r="K87"/>
     </row>
-    <row r="88" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J88"/>
       <c r="K88"/>
     </row>
-    <row r="89" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J89"/>
       <c r="K89"/>
     </row>
-    <row r="90" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J90"/>
       <c r="K90"/>
     </row>
-    <row r="91" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J91"/>
       <c r="K91"/>
     </row>
-    <row r="92" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J92"/>
       <c r="K92"/>
     </row>
-    <row r="93" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J93"/>
       <c r="K93"/>
     </row>
-    <row r="94" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J94"/>
       <c r="K94"/>
     </row>
-    <row r="95" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J95"/>
       <c r="K95"/>
     </row>
-    <row r="96" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J96"/>
       <c r="K96"/>
     </row>
-    <row r="97" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J97"/>
       <c r="K97"/>
     </row>
-    <row r="98" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J98"/>
       <c r="K98"/>
     </row>
-    <row r="99" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J99"/>
       <c r="K99"/>
     </row>
-    <row r="100" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J100"/>
       <c r="K100"/>
     </row>
-    <row r="101" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J101"/>
       <c r="K101"/>
     </row>
-    <row r="102" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J102"/>
       <c r="K102"/>
     </row>
-    <row r="103" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J103"/>
       <c r="K103"/>
     </row>
-    <row r="104" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J104"/>
       <c r="K104"/>
     </row>
-    <row r="105" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J105"/>
       <c r="K105"/>
     </row>
-    <row r="106" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J106"/>
       <c r="K106"/>
     </row>
-    <row r="107" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J107"/>
       <c r="K107"/>
     </row>
-    <row r="108" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J108"/>
       <c r="K108"/>
     </row>
-    <row r="109" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J109"/>
       <c r="K109"/>
     </row>
-    <row r="110" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J110"/>
       <c r="K110"/>
     </row>
-    <row r="111" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J111"/>
       <c r="K111"/>
     </row>
-    <row r="112" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J112"/>
       <c r="K112"/>
     </row>
-    <row r="113" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J113"/>
       <c r="K113"/>
     </row>
-    <row r="114" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J114"/>
       <c r="K114"/>
     </row>
-    <row r="115" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J115"/>
       <c r="K115"/>
     </row>
-    <row r="116" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J116"/>
       <c r="K116"/>
     </row>
-    <row r="117" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J117"/>
       <c r="K117"/>
     </row>
-    <row r="118" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J118"/>
       <c r="K118"/>
     </row>
-    <row r="119" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J119"/>
       <c r="K119"/>
     </row>
-    <row r="120" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J120"/>
       <c r="K120"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C41:C50"/>
+    <mergeCell ref="N5:N9"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="O4:O9"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="C23:C32"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="C68:C77"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="A4:A13"/>
@@ -4332,22 +4349,6 @@
     <mergeCell ref="B15:B32"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C41:C50"/>
-    <mergeCell ref="N5:N9"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="O4:O9"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="C23:C32"/>
-    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
